--- a/Base de dados alunos abaco.xlsx
+++ b/Base de dados alunos abaco.xlsx
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A92292C-E4B8-654C-9F9E-1B30332AC7AE}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="111" workbookViewId="0">
-      <selection sqref="A1:L36"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Base de dados alunos abaco.xlsx
+++ b/Base de dados alunos abaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveestacio-my.sharepoint.com/personal/202301098386_alunos_ibmec_edu_br/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="505" documentId="8_{DA3D96A7-EE60-B349-B7AC-22D4B6F01C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D1A2AB9-50E9-5948-94B7-972678554E98}"/>
+  <xr:revisionPtr revIDLastSave="508" documentId="8_{DA3D96A7-EE60-B349-B7AC-22D4B6F01C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE04D559-A27D-CD4F-A5B7-FE4C09427A26}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16700" xr2:uid="{55E3528D-73A1-4141-A22A-20EB3055C3CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Nr.</t>
   </si>
@@ -177,45 +177,6 @@
   </si>
   <si>
     <t>Raul G</t>
-  </si>
-  <si>
-    <t>Relação de Avaliações</t>
-  </si>
-  <si>
-    <t>Nr</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Prova 1 (valor 10,0)</t>
-  </si>
-  <si>
-    <t>Prova 2 (valor 10,0)</t>
-  </si>
-  <si>
-    <t>PG - Simulado (valor 3,0)</t>
-  </si>
-  <si>
-    <t>Atividade em dupla (valor 2,0)</t>
-  </si>
-  <si>
-    <t>Arte no Diagrama (valor 1,0)</t>
-  </si>
-  <si>
-    <t>BOLSA (valor 2,0)</t>
-  </si>
-  <si>
-    <t>PITÁGORAS (valor 2,0)</t>
-  </si>
-  <si>
-    <t>Desconto de Tarefa(s) (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula para calculo da média Bimestral: </t>
-  </si>
-  <si>
-    <t>(AV1+AV2+AV3+AV4+AV5+AV6+AV7-AV8)/3</t>
   </si>
 </sst>
 </file>
@@ -239,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -263,54 +224,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -383,24 +302,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -408,7 +314,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -417,39 +344,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -773,7 +672,7 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,10 +791,8 @@
       <c r="L3" s="3">
         <v>6</v>
       </c>
-      <c r="Q3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="18"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
@@ -932,12 +829,8 @@
       <c r="L4" s="3">
         <v>6.9</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
@@ -974,12 +867,8 @@
       <c r="L5" s="3">
         <v>7.5</v>
       </c>
-      <c r="Q5" s="13">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
@@ -1016,12 +905,8 @@
       <c r="L6" s="3">
         <v>9.4</v>
       </c>
-      <c r="Q6" s="13">
-        <v>2</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
@@ -1058,12 +943,8 @@
       <c r="L7" s="3">
         <v>5.5</v>
       </c>
-      <c r="Q7" s="13">
-        <v>3</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -1100,12 +981,8 @@
       <c r="L8" s="3">
         <v>4.2</v>
       </c>
-      <c r="Q8" s="13">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
@@ -1142,12 +1019,8 @@
       <c r="L9" s="3">
         <v>7.8</v>
       </c>
-      <c r="Q9" s="13">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
@@ -1184,12 +1057,8 @@
       <c r="L10" s="3">
         <v>8.9</v>
       </c>
-      <c r="Q10" s="13">
-        <v>6</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
@@ -1226,12 +1095,8 @@
       <c r="L11" s="3">
         <v>7.1</v>
       </c>
-      <c r="Q11" s="13">
-        <v>7</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
@@ -1268,12 +1133,8 @@
       <c r="L12" s="3">
         <v>7.8</v>
       </c>
-      <c r="Q12" s="14">
-        <v>8</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
@@ -1310,6 +1171,8 @@
       <c r="L13" s="3">
         <v>6</v>
       </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
@@ -1346,6 +1209,8 @@
       <c r="L14" s="3">
         <v>4.4000000000000004</v>
       </c>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
@@ -1382,12 +1247,8 @@
       <c r="L15" s="3">
         <v>5.6</v>
       </c>
-      <c r="Q15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
